--- a/biology/Médecine/Acrodysostose/Acrodysostose.xlsx
+++ b/biology/Médecine/Acrodysostose/Acrodysostose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acrodysostose, également connue sous le nom d'acrodysplasie, de syndrome d'Arkless-Graham[1] ou de syndrome de Maroteaux-Malamut[2], est une malformation congénitale rare qui entraîne un raccourcissement des articulations interphalangiennes des mains et des pieds, une déficience intellectuelle chez environ 90 % des enfants affectés, un retard de la croissance, une petite taille et un faciès particulier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acrodysostose, également connue sous le nom d'acrodysplasie, de syndrome d'Arkless-Graham ou de syndrome de Maroteaux-Malamut, est une malformation congénitale rare qui entraîne un raccourcissement des articulations interphalangiennes des mains et des pieds, une déficience intellectuelle chez environ 90 % des enfants affectés, un retard de la croissance, une petite taille et un faciès particulier.
 La plupart des cas rapportés sont sporadiques ; quelques-uns sont familiaux à transmission autosomique dominante.
-En 2011, des chercheurs pensent avoir trouvé une cause génétique à l'acrodysostose en identifiant une mutation sur le gène codant PRKAR1A, une sous-unité de la protéine kinase A[3].
+En 2011, des chercheurs pensent avoir trouvé une cause génétique à l'acrodysostose en identifiant une mutation sur le gène codant PRKAR1A, une sous-unité de la protéine kinase A.
 </t>
         </is>
       </c>
